--- a/output/sizes.xlsx
+++ b/output/sizes.xlsx
@@ -1,76 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dratw\Documents\codes\bestSizeChecker\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C93F0-71D2-4AD4-810D-75CF7B7E57D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Product_name</t>
-  </si>
-  <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>StockX_sizes</t>
-  </si>
-  <si>
-    <t>Alias_sizes</t>
-  </si>
-  <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>adidas Yeezy Slide Flax</t>
-  </si>
-  <si>
-    <t>FZ5896</t>
-  </si>
-  <si>
-    <t>['5', '6', '7', '10', '11', '12', '13', '14', '15']</t>
-  </si>
-  <si>
-    <t>[6, 7, 10, 10.5, 11, 12, 13, 14, 15, 16]</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -85,43 +47,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +421,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sizes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['36', '37', '38', '39', '40', '41', '42']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey (GS)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GSB550PB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['35.5', '36', '37', '38', '38.5', '39', '37.5', '36.5']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/sizes.xlsx
+++ b/output/sizes.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,20 +480,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+          <t>Jordan 1 Mid Pinksicle Safety Orange (GS)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1135092-CHE</t>
+          <t>DX3240-681</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['36', '37', '38', '39', '40', '41', '42']</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>['36.5', '37.5', '38', '38.5', '39', '40', '36', '35.5']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>JOC43A06O-A11</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,20 +505,1149 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Balance 550 White Grey (GS)</t>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GSB550PB</t>
+          <t>DO9457-100</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['35.5', '36', '37', '38', '38.5', '39', '37.5', '36.5']</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>['35.5', '36', '41', '42', '42.5', '43', '44', '44.5', '37.5', '38', '40.5', '36.5']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NI111A13X-A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Black Rain Cloud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BB550NCA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['38', '39.5', '40', '40.5', '44.5', '45.5', '46.5', '50', '38.5', '37', '47.5', '36']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NE215O05H-A17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Dark Driftwood (W)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DD1503-200</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['36.5', '43', '44', '44.5']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NI111A0RH-B13</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Pink (W)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BBW550WP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42.5', '43', '36', '35.5']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NE211A0L8-J11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['36.5', '38.5', '42', '42.5', '41', '44', '43', '40.5']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NI111A14H-Q11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['33.5', '34', '35', '36.5', '37.5', '38', '38.5', '39', '40', '42', '36']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NI116D07B-A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['36', '37']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>UG111X06U-O11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Grey</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DJ6188-003</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '40', '40.5', '42.5', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '42', '41', '36.5', '37.5', '43', '38']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NI112O0NK-C11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Chlorophyll</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DJ6188-300</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47.5', '47', '49.5', '38.5', '37.5', '48.5', '38']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NI112O0NK-A13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Patent Halloween (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DJ9955-800</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['40', '40.5', '41', '42', '42.5', '43', '35.5', '44']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NI111A123-H11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Judge Grey</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DJ6188-200</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '38']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NI112O0NK-N11</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE Fleece Pack Honeydew (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DQ7579-300</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['36.5', '43', '44.5', '42.5', '35.5', '37.5', '44', '36']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NI111A161-C11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['40.5', '42', '42.5', '43', '44', '44.5', '35.5']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NI111A160-C11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Grey Dark Grey</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BB550WTG</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['4', '4.5 2E', '5', '5 2E', '5.5', '5.5 2E', '6', '6 2E', '6.5', '7', '7 2E', '7.5', '7.5 2E', '9', '9 2E', '9.5', '10', '10.5', '11', '11.5', '11.5 2E', '12']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NE215O0AG-A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Bred Toe</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>553558-612</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['40.5', '50.5', '47.5', '51.5']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>JOC12O006-G14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Retro Cargo Khaki (2021)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DD1399-107</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['39', '40', '40.5', '41', '42', '42.5', '38.5', '43', '45']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NI112O0GY-A17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jordan 4 Retro Midnight Navy (GS)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>408452-140</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['36.5', '37.5', '38', '38.5', '39', '40', '36', '35.5']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>JOC43A04N-A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Sonics (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>554725-371</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['36', '36.5', '38.5', '39', '37.5', '38']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>JOC43A011-M11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Safari Mix (W)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DN3866-100</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['7W', '7.5W', '8W', '8.5W', '9W', '9.5W', '10W', '10.5W', '11W', '11.5W', '12W', '12.5W', '13W', '13.5W', '14W', '14.5W', '15.5W', '16W']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NI111A10D-T11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Essential Paisley Pack Barley (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DH4401-104</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['42.5', '43', '44', '44.5', '42', '40.5']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NI111A129-A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Valerian Blue</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DD1391-400</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NI112O0GN-K12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Jordan 4 Retro Midnight Navy</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DH6927-140</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5', '50.5', '51.5']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>JOC12N01X-A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Neptune Green (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DO9457-101</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['37.5', '40.5', '41', '42.5', '42', '35.5', '44', '43', '38']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NI111A13X-M11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Gorge Green</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DZ5485-303</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['39', '40', '49.5', '38.5', '36.5', '37.5', '51.5', '38']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>JOC15O003-M11</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid SE Light Mulberry (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DC7267-500</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['37.5', '38', '38.5', '39', '40.5', '36.5']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>JOC11A02X-I11</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Bordeaux (GS)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>553560-615</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['4Y', '4.5Y', '6.5Y']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>JOC43A064-G11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DD1399-106</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '40', '40.5', '47.5', '48.5', '41']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NI112O0GY-A18</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature Homer Simpson (GS)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DX3382-400</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NI116D0GP-K11</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022) (GS)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>378038-116</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['39', '40']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>JOC43A04P-A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CT8012-116</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '40.5', '45.5', '46', '47', '47.5', '48.5', '49.5', '50.5', '51.5']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>JOC12N01D-A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Marina Blue (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC0774-114</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['40', '40.5', '42', '43', '42.5', '44']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>JOC11A020-A14</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Jordan 4 Retro Military Black (GS)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>408452-111</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>JOC43A04N-A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Bold Pink Glow (W)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>H06122</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['36.5', '42.5', '40.5']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ad111a25j-j11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro Miami Hurricanes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DD1391-300</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['38.5', '47.5', '48.5', '49.5', '37.5', '36', '36.5']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ni112o0gn-m11</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Mystic Navy Mint Foam</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>554724-413</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['40', '40.5', '41', '42.5', '50.5']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>joc12n001-k13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Driftwood (W)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1135092-DRI</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ug111x06u-b11</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Split Black White (W)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DR0501-101</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['36', '36.5', '37.5', '38.5', '40', '40.5', '41', '42', '43']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>joc11a040-q11</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Hot Curry Game Royal (GS)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DH9765-101</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['35.5']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ni116d0e7-g11</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Jordan 4 Retro Messy Room (GS)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DR6952-400</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['39', '40']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>joc43a06w-k11</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low PRM Halloween (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DO3806-100</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['38', '40', '38.5']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ni114d0i8-a11</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid SE Seahawks (W)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DZ5326-300</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['42.5']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>joc11a04c-m11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Terry Swoosh (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DZ4706-200</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['43', '44', '44.5', '42.5']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ni111a15o-b11</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>New Balance 550 UNC White Dusk Blue (W)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BBW550BC</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['5W', '5.5W', '6W', '6.5W', '10.5W', '12W', '12.5W']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ne211a0l8-a22</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Ice Blue Black (GS)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>554723-401</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['36.5', '39']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>joc43a00z-k11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid True Blue</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DQ8426-014</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['39', '51.5', '50.5']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>JOC12O01N-C11</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low True Blue</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>553558-412</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['38.5', '38', '39']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>JOC12O006-K15</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output/sizes.xlsx
+++ b/output/sizes.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -423,4 +436,921 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SKU</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sizes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>New Balance 550 Summer Fog Dusk Blue (W)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BBW550ZA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>[None, None, None, None, None, None, None, None, None, None]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ne211a0l8-k11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>New Balance 9060 Black Castlerock Grey</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>U9060BLK</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['39', '44.5', '45', '47.5', '40', '49.5', '36.5', '40.5', '36', '38', '48.5']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ne215o0bb-q11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE Fleece Pack Honeydew (W)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DQ7579-300</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['36.5', '37.5', '39', '40', '42.5', '43', '44.5', '35.5', '36', '44']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ni111a161-c11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Black (W)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1135092-BLK</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ug111x06u-q11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Panda (2021) (W)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DD1869-103</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ni111a0rg-a11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>New Balance 550 White Bubblegum Pink (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BBW550BD</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ne211a0l8-a23</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Olive Toe (W)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DV0427-301</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['37.5', '38', '38.5', '39', '40', '41', '42', '42.5', '43', '44', '44.5', '40.5', '35.5']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>joc11a03y-o11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jordan 1 Retro High OG Varsity Red (W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DJ4891-061</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['14W', '14.5W', '15.5W', '16.5W']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>joc11a037-g11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CW1590-100</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['35', '36.5', '37.5', '38', '38.5', '39', '40']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ni116d07b-a11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Cherry (2022)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CT8012-116</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '40', '40.5', '45.5', '46', '47', '47.5', '48.5', '49.5', '50.5', '52.5', '51.5']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>joc12n01d-a11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1135092-CHE</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ug111x06u-o11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>554724-174</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['40', '45.5', '46', '52.5', '50.5', '51.5']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>joc12n001-a17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UGG Classic Ultra Mini Platform Driftwood (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1135092-DRI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ug111x06u-b11</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jordan 4 Retro Military Black</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DH6927-111</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['38', '38.5', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5', '50.5', '51.5', '35.5', '37.5', '36.5', '36', '52.5', '39']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>joc12n01x-a11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid Stealth (W)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BQ6472-115</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>joc11a000-b13</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Mint (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DN1431-102</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['12.5W', '13W', '13.5W', '14W', '14.5W', '15.5W', '16.5W']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ni111a10g-a12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Light Iron Ore (W)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DQ7576-001</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['35.5', '42', '42.5', '43', '44', '44.5']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ni111a160-c11</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DD1873-102</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['5W', '11W', '12.5W', '13W', '13.5W']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>ni111a0zk-a13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Jordan 11 Retro Midnight Navy (W)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AR0715-441</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['36', '44.5']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>joc11a00t-k11</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid True Blue Cement (GS)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DQ8423-014</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>joc43a06t-c12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DV4024-002</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['36.5', '37.5', '38.5', '41', '42', '44', '43', '40', '40.5', '44.5', '38', '42.5']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ni111a14h-q11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Industrial Blue Sashiko</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DV0834-101</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ni112o0tf-a12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DO9457-100</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['35.5', '36', '36.5', '37.5', '38', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ni111a13x-a11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Retro White Pure Platinum</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DV0831-101</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ni112o0tc-a11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nike Dunk High Championship White Red</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DD1399-106
+</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '40', '40.5', '41', '47.5', '48.5', '49.5', '47', '36.5']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NI112O0GY-A18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Ice Blue Black (GS)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>554723-401</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['38.5', '39', '36.5']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>joc43a00z-k11</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid University Blue Grey</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DX9276-100</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>JOC12N022-K11</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Jordan 1 Mid White Black Red (2022)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>554724-079</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['47', '40.5', '38']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>JOC12N001-Q29</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nike Dunk Low Peach Cream (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DD1503-801</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['43', '44.5', '35.5', '44']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NI111A0RH-H12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>New Balance 550 UNC White Dusk Blue (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BBW550BC</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[None]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NE211A0L8-A22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jordan 1 Low Desert (W)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DC0774-201</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>JOC11A020-B13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Bold Pulse Mint Pink (W)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>H06125</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['35.5', '40', '37.5', '36.5', '36', '40.5', '38', '42.5', '41', '38.5']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ad111a25j-m11</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>adidas Gazelle Indoor Blue Bird Gum</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>H06260</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['46 ⅔', '36', '39  ⅓', '45 ⅓', '41 ⅓', '40 ⅔', '47 ⅓']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ad111a280-k11</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Navy Gum</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BD7633</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['37 ⅓', '38', '38 ⅔', '39  ⅓', '36', '36 ⅔', '49 ⅓']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ad115o07w-k11</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>adidas Handball Spezial Black Gum</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DB3021</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['39  ⅓', '38 ⅔', '36 ⅔', '40', '36', '37 ⅓', '38', '49 ⅓']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ad115o07w-q11</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/sizes.xlsx
+++ b/output/sizes.xlsx
@@ -1,40 +1,722 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/bestSizeChecker/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB1EFE0-2103-ED43-B272-F1DE174DEA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="222">
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Sizes</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>New Balance 550 Summer Fog Dusk Blue (W)</t>
+  </si>
+  <si>
+    <t>BBW550ZA</t>
+  </si>
+  <si>
+    <t>['35', '36', '36.5', '37', '37.5', '38', '39', '40', '40.5', '41', '41.5', '42.5']</t>
+  </si>
+  <si>
+    <t>ne211a0l8-k11</t>
+  </si>
+  <si>
+    <t>New Balance 9060 Black Castlerock Grey</t>
+  </si>
+  <si>
+    <t>U9060BLK</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '44.5', '45.5', '47', '47.5', '49.5']</t>
+  </si>
+  <si>
+    <t>ne215o0bb-q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE Fleece Pack Honeydew (W)</t>
+  </si>
+  <si>
+    <t>DQ7579-300</t>
+  </si>
+  <si>
+    <t>['35.5', '36.5', '37.5', '39', '40.5', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>ni111a161-c11</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Black (W)</t>
+  </si>
+  <si>
+    <t>1135092-BLK</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>ug111x06u-q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High Panda (2021) (W)</t>
+  </si>
+  <si>
+    <t>DD1869-103</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>ni111a0rg-a11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Olive Toe (W)</t>
+  </si>
+  <si>
+    <t>DV0427-301</t>
+  </si>
+  <si>
+    <t>['35.5', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>joc11a03y-o11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro High OG Varsity Red (W)</t>
+  </si>
+  <si>
+    <t>DJ4891-061</t>
+  </si>
+  <si>
+    <t>['14.5W', '15.5W', '16.5W']</t>
+  </si>
+  <si>
+    <t>joc11a037-g11</t>
+  </si>
+  <si>
+    <t>Jordan 11 Retro Cherry (2022)</t>
+  </si>
+  <si>
+    <t>CT8012-116</t>
+  </si>
+  <si>
+    <t>['38', '38.5', '39', '40.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5', '50.5', '51.5', '52.5']</t>
+  </si>
+  <si>
+    <t>joc12n01d-a11</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Chestnut (W)</t>
+  </si>
+  <si>
+    <t>1135092-CHE</t>
+  </si>
+  <si>
+    <t>ug111x06u-o11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+  </si>
+  <si>
+    <t>554724-174</t>
+  </si>
+  <si>
+    <t>['40.5', '45.5', '47', '47.5', '48.5', '49.5', '50.5', '51.5', '52.5']</t>
+  </si>
+  <si>
+    <t>joc12n001-a17</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Driftwood (W)</t>
+  </si>
+  <si>
+    <t>1135092-DRI</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>ug111x06u-b11</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Military Black</t>
+  </si>
+  <si>
+    <t>DH6927-111</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5', '50.5', '51.5', '52.5']</t>
+  </si>
+  <si>
+    <t>joc12n01x-a11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Stealth (W)</t>
+  </si>
+  <si>
+    <t>BQ6472-115</t>
+  </si>
+  <si>
+    <t>joc11a000-b13</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature White Mint (W)</t>
+  </si>
+  <si>
+    <t>DN1431-102</t>
+  </si>
+  <si>
+    <t>['11W', '12.5W', '13.5W', '13W', '14.5W', '14W', '15.5W', '16.5W']</t>
+  </si>
+  <si>
+    <t>ni111a10g-a12</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Iron Ore (W)</t>
+  </si>
+  <si>
+    <t>DQ7576-001</t>
+  </si>
+  <si>
+    <t>['42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>ni111a160-c11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature White Black Panda (W)</t>
+  </si>
+  <si>
+    <t>DD1873-102</t>
+  </si>
+  <si>
+    <t>['11W', '12.5W', '13.5W', '13W']</t>
+  </si>
+  <si>
+    <t>ni111a0zk-a13</t>
+  </si>
+  <si>
+    <t>Jordan 11 Retro Midnight Navy (W)</t>
+  </si>
+  <si>
+    <t>AR0715-441</t>
+  </si>
+  <si>
+    <t>['43', '44.5']</t>
+  </si>
+  <si>
+    <t>joc11a00t-k11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid True Blue Cement (GS)</t>
+  </si>
+  <si>
+    <t>DQ8423-014</t>
+  </si>
+  <si>
+    <t>joc43a06t-c12</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Disrupt 2 Panda (W)</t>
+  </si>
+  <si>
+    <t>DV4024-002</t>
+  </si>
+  <si>
+    <t>['37.5', '38', '38.5', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>ni111a14h-q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Industrial Blue Sashiko</t>
+  </si>
+  <si>
+    <t>DV0834-101</t>
+  </si>
+  <si>
+    <t>ni112o0tf-a12</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (W)</t>
+  </si>
+  <si>
+    <t>DO9457-100</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>ni111a13x-a11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Pure Platinum</t>
+  </si>
+  <si>
+    <t>DV0831-101</t>
+  </si>
+  <si>
+    <t>['38.5', '39']</t>
+  </si>
+  <si>
+    <t>ni112o0tc-a11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High Championship White Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD1399-106
+</t>
+  </si>
+  <si>
+    <t>['38.5', '39', '40', '40.5', '41', '46', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GY-A18</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid University Blue Grey</t>
+  </si>
+  <si>
+    <t>DX9276-100</t>
+  </si>
+  <si>
+    <t>['40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>JOC12N022-K11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid White Black Red (2022)</t>
+  </si>
+  <si>
+    <t>554724-079</t>
+  </si>
+  <si>
+    <t>['36.5', '40.5', '47']</t>
+  </si>
+  <si>
+    <t>JOC12N001-Q29</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Peach Cream (W)</t>
+  </si>
+  <si>
+    <t>DD1503-801</t>
+  </si>
+  <si>
+    <t>['43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>NI111A0RH-H12</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Desert (W)</t>
+  </si>
+  <si>
+    <t>DC0774-201</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>JOC11A020-B13</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Phantom Metallic Gold (W)</t>
+  </si>
+  <si>
+    <t>DX5930-001</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '37.5', '39', '40.5', '41', '42', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>NI111A17D-Q11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Orange Suede (GS)</t>
+  </si>
+  <si>
+    <t>DV1336-800</t>
+  </si>
+  <si>
+    <t>JOC43A07Q-H11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Chlorophyll</t>
+  </si>
+  <si>
+    <t>DJ6188-300</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0NK-A13</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Chestnut (W)</t>
+  </si>
+  <si>
+    <t>1122553-CHE</t>
+  </si>
+  <si>
+    <t>UG111E01B-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Barely Grape (GS)</t>
+  </si>
+  <si>
+    <t>DQ8423-501</t>
+  </si>
+  <si>
+    <t>JOC43A06T-I11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Stealth French Blue (W)</t>
+  </si>
+  <si>
+    <t>DC0774-042</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43']</t>
+  </si>
+  <si>
+    <t>JOC11A020-K12</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Purple Mocha (GS)</t>
+  </si>
+  <si>
+    <t>553560-215</t>
+  </si>
+  <si>
+    <t>JOC43A064-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro High OG Gorge Green</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40']</t>
+  </si>
+  <si>
+    <t>JOC15O003-M11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low SE Homage Split White Black (W)</t>
+  </si>
+  <si>
+    <t>DR0502-101</t>
+  </si>
+  <si>
+    <t>['39', '40', '40.5', '42', '43', '44.5']</t>
+  </si>
+  <si>
+    <t>JOC11A03Z-Q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Pale Ivory Redwood (W)</t>
+  </si>
+  <si>
+    <t>DD1503-122</t>
+  </si>
+  <si>
+    <t>NI111A0RH-A21</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro High OG Starfish (W)</t>
+  </si>
+  <si>
+    <t>DO9369-101</t>
+  </si>
+  <si>
+    <t>['40', '40.5']</t>
+  </si>
+  <si>
+    <t>JOC11A03R-A11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Light Mulberry (W)</t>
+  </si>
+  <si>
+    <t>DC7267-500</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '42']</t>
+  </si>
+  <si>
+    <t>JOC11A02X-I11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Terry Swoosh (W)</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '38', '38.5', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>NI111A15O-B11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+  </si>
+  <si>
+    <t>DV0834-100</t>
+  </si>
+  <si>
+    <t>['39', '44.5', '47', '48.5']</t>
+  </si>
+  <si>
+    <t>NI112O0TF-A11</t>
+  </si>
+  <si>
+    <t>UGG Classic Mini Platform Boot Chestnut (W)</t>
+  </si>
+  <si>
+    <t>1134991-CHE</t>
+  </si>
+  <si>
+    <t>['42', '43']</t>
+  </si>
+  <si>
+    <t>UG111X06Z-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+  </si>
+  <si>
+    <t>DD9315-002</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '39', '43', '47', '49.5', '50.5']</t>
+  </si>
+  <si>
+    <t>NI442A04C-C11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Marina Blue (W)</t>
+  </si>
+  <si>
+    <t>DC0774-114</t>
+  </si>
+  <si>
+    <t>['41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>JOC11A020-A14</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Arizona State</t>
+  </si>
+  <si>
+    <t>DD1391-702</t>
+  </si>
+  <si>
+    <t>['38.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GN-F11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Split Black White (W)</t>
+  </si>
+  <si>
+    <t>DR0501-101</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5', '38.5', '39', '40', '40.5', '41', '42', '43']</t>
+  </si>
+  <si>
+    <t>JOC11A040-Q11</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Infrared</t>
+  </si>
+  <si>
+    <t>DH6927-061</t>
+  </si>
+  <si>
+    <t>['38.5', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5', '50.5', '51.5']</t>
+  </si>
+  <si>
+    <t>JOC12N01X-C11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature Dark Beetroot (W)</t>
+  </si>
+  <si>
+    <t>DN1431-002</t>
+  </si>
+  <si>
+    <t>['35.5']</t>
+  </si>
+  <si>
+    <t>NI111A10G-Q11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Wear-Away Chicago</t>
+  </si>
+  <si>
+    <t>DV9565-006</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>JOC12N023-Q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Dark Driftwood (W)</t>
+  </si>
+  <si>
+    <t>DD1503-200</t>
+  </si>
+  <si>
+    <t>NI111A0RH-B13</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Grey</t>
+  </si>
+  <si>
+    <t>DJ6188-003</t>
+  </si>
+  <si>
+    <t>['38.5', '39', '40', '40.5', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0NK-C11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Multi Color (2022) (W)</t>
+  </si>
+  <si>
+    <t>DN3738-400</t>
+  </si>
+  <si>
+    <t>['37.5', '38', '39', '40', '41', '42', '44.5']</t>
+  </si>
+  <si>
+    <t>JOC11A03S-T11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low New Emerald (W)</t>
+  </si>
+  <si>
+    <t>DC0774-132</t>
+  </si>
+  <si>
+    <t>['38.5', '41', '42.5']</t>
+  </si>
+  <si>
+    <t>JOC11A020-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Black Panda (2021) (GS)</t>
+  </si>
+  <si>
+    <t>CW1590-100</t>
+  </si>
+  <si>
+    <t>['38', '39', '40']</t>
+  </si>
+  <si>
+    <t>NI116D07B-A11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature Phantom Gold Suede (W)</t>
+  </si>
+  <si>
+    <t>DN1431-001</t>
+  </si>
+  <si>
+    <t>['12.5W', '13.5W', '13W', '14.5W', '16.5W']</t>
+  </si>
+  <si>
+    <t>ni111a10g-k11</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Navy Gum</t>
+  </si>
+  <si>
+    <t>BD7633</t>
+  </si>
+  <si>
+    <t>['36', '36 ⅔', '37 ⅓', '38', '38 ⅔', '39  ⅓', '40', '40 ⅔', '41 ⅓', '49 ⅓']</t>
+  </si>
+  <si>
+    <t>ad115o07w-k11</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Black Gum</t>
+  </si>
+  <si>
+    <t>DB3021</t>
+  </si>
+  <si>
+    <t>['37 ⅓', '38', '38 ⅔', '49 ⅓']</t>
+  </si>
+  <si>
+    <t>ad115o07w-q11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +724,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +1049,1018 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="113.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/sizes.xlsx
+++ b/output/sizes.xlsx
@@ -1,40 +1,857 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/bestSizeChecker/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29643AB7-26B1-3147-A8A4-0DD1102C798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="adidas" sheetId="2" r:id="rId2"/>
+    <sheet name="zalando" sheetId="3" r:id="rId3"/>
+    <sheet name="aboutyou" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="262">
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Sizes</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Indoor Bold Orange (Women's)</t>
+  </si>
+  <si>
+    <t>HQ8718</t>
+  </si>
+  <si>
+    <t>['', '36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '41 1/3']</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Indoor Blue Fusion Gum (Women's)</t>
+  </si>
+  <si>
+    <t>HQ8717</t>
+  </si>
+  <si>
+    <t>['', '36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '44']</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Black Gum</t>
+  </si>
+  <si>
+    <t>DB3021</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '38', '40', '40 2/3', '47 1/3']</t>
+  </si>
+  <si>
+    <t>adidas Samba Vegan Black Gum</t>
+  </si>
+  <si>
+    <t>H01878</t>
+  </si>
+  <si>
+    <t>['36', '38', '40', '49 1/3']</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Navy Gum</t>
+  </si>
+  <si>
+    <t>BD7633</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '49 1/3']</t>
+  </si>
+  <si>
+    <t>adidas Samba Vegan White Gum</t>
+  </si>
+  <si>
+    <t>H01877</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '40', '48 2/3']</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Indoor Collegiate Green</t>
+  </si>
+  <si>
+    <t>IG9979</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '45 1/3', '47 1/3']</t>
+  </si>
+  <si>
+    <t>adidas Samba Ajax Cream</t>
+  </si>
+  <si>
+    <t>IE7684</t>
+  </si>
+  <si>
+    <t>['36', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '44', '44 2/3', '45 1/3', '46', '46 2/3', '47 1/3', '48']</t>
+  </si>
+  <si>
+    <t>adidas Samba OG Black White Gum</t>
+  </si>
+  <si>
+    <t>B75807</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>adidas Samba OG Cloud White Core Black</t>
+  </si>
+  <si>
+    <t>B75806</t>
+  </si>
+  <si>
+    <t>['', '36', '38']</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Two-Toned Grey (GS)</t>
+  </si>
+  <si>
+    <t>DH9765-001</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>ni116d0e7-c11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Rose Whisper (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-118</t>
+  </si>
+  <si>
+    <t>ni111a0rh-a17</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Grey Dark Grey</t>
+  </si>
+  <si>
+    <t>BB550WTG</t>
+  </si>
+  <si>
+    <t>['', '37.5', '38', '38.5', '39.5', '40', '40.5', '41.5', '42.5', '43', '44', '44.5', '45', '45.5', '46.5', '47.5']</t>
+  </si>
+  <si>
+    <t>ne215o0ag-a12</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Black Panda (2021)</t>
+  </si>
+  <si>
+    <t>DD1391-100</t>
+  </si>
+  <si>
+    <t>['', '36', '36.5', '38', '38.5', '39', '47']</t>
+  </si>
+  <si>
+    <t>NI112O0GN-A11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Grey Fog</t>
+  </si>
+  <si>
+    <t>DD1391-103</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GN-A15</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Summit White Midnight Navy</t>
+  </si>
+  <si>
+    <t>FD9749-400</t>
+  </si>
+  <si>
+    <t>['36.5', '37.5', '40.5', '44.5', '45.5', '46', '47.5']</t>
+  </si>
+  <si>
+    <t>NI115O04G-K11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE Fleece Pack Honeydew (Women's)</t>
+  </si>
+  <si>
+    <t>DQ7579-300</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5', '38', '38.5', '39', '40', '41', '42', '42.5', '43', '44', '44.5', '45', '46']</t>
+  </si>
+  <si>
+    <t>ni111a161-c11</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Black (Women's)</t>
+  </si>
+  <si>
+    <t>1135092-BLK</t>
+  </si>
+  <si>
+    <t>['36', '37']</t>
+  </si>
+  <si>
+    <t>ug111x06u-q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High Panda (2021) (Women's)</t>
+  </si>
+  <si>
+    <t>DD1869-103</t>
+  </si>
+  <si>
+    <t>ni111a0rg-a11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Olive Toe (Women's)</t>
+  </si>
+  <si>
+    <t>DV0427-301</t>
+  </si>
+  <si>
+    <t>['35.5', '36.5', '38', '39', '40.5', '41', '42', '43', '44', '44.5', '45', '45.5']</t>
+  </si>
+  <si>
+    <t>joc11a03y-o11</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>1135092-CHE</t>
+  </si>
+  <si>
+    <t>ug111x06u-o11</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Driftwood (Women's)</t>
+  </si>
+  <si>
+    <t>1135092-DRI</t>
+  </si>
+  <si>
+    <t>ug111x06u-b11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature White Mint (Women's)</t>
+  </si>
+  <si>
+    <t>DN1431-102</t>
+  </si>
+  <si>
+    <t>['', '44', '46']</t>
+  </si>
+  <si>
+    <t>ni111a10g-a12</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Iron Ore (Women's)</t>
+  </si>
+  <si>
+    <t>DQ7576-001</t>
+  </si>
+  <si>
+    <t>['42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
+  </si>
+  <si>
+    <t>ni111a160-c11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature White Black Panda (Women's)</t>
+  </si>
+  <si>
+    <t>DD1873-102</t>
+  </si>
+  <si>
+    <t>['']</t>
+  </si>
+  <si>
+    <t>ni111a0zk-a13</t>
+  </si>
+  <si>
+    <t>Jordan 11 Retro Midnight Navy (Women's)</t>
+  </si>
+  <si>
+    <t>AR0715-441</t>
+  </si>
+  <si>
+    <t>['44.5', '46']</t>
+  </si>
+  <si>
+    <t>joc11a00t-k11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid True Blue Cement (GS)</t>
+  </si>
+  <si>
+    <t>DQ8423-014</t>
+  </si>
+  <si>
+    <t>joc43a06t-c12</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Industrial Blue Sashiko</t>
+  </si>
+  <si>
+    <t>DV0834-101</t>
+  </si>
+  <si>
+    <t>['38.5', '48.5']</t>
+  </si>
+  <si>
+    <t>ni112o0tf-a12</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE 85 Double Swoosh Sail Orange (Women's)</t>
+  </si>
+  <si>
+    <t>DO9457-100</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
+  </si>
+  <si>
+    <t>ni111a13x-a11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Pure Platinum</t>
+  </si>
+  <si>
+    <t>DV0831-101</t>
+  </si>
+  <si>
+    <t>ni112o0tc-a11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High Championship White Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DD1399-106
+</t>
+  </si>
+  <si>
+    <t>['38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GY-A18</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid White Black Red (2022)</t>
+  </si>
+  <si>
+    <t>554724-079</t>
+  </si>
+  <si>
+    <t>['47', '48.5']</t>
+  </si>
+  <si>
+    <t>JOC12N001-Q29</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Desert (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-201</t>
+  </si>
+  <si>
+    <t>JOC11A020-B13</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>1122553-CHE</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>UG111E01B-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-042</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38.5', '39', '40', '40.5', '41', '42', '42.5', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>JOC11A020-K12</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro High OG Gorge Green</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '45', '45.5', '46', '47', '47.5']</t>
+  </si>
+  <si>
+    <t>JOC15O003-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Pale Ivory Redwood (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-122</t>
+  </si>
+  <si>
+    <t>NI111A0RH-A21</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro High OG Starfish (Women's)</t>
+  </si>
+  <si>
+    <t>DO9369-101</t>
+  </si>
+  <si>
+    <t>JOC11A03R-A11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Terry Swoosh (Women's)</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>['42.5', '43', '44', '44.5', '45']</t>
+  </si>
+  <si>
+    <t>NI111A15O-B11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+  </si>
+  <si>
+    <t>DV0834-100</t>
+  </si>
+  <si>
+    <t>['39', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0TF-A11</t>
+  </si>
+  <si>
+    <t>UGG Classic Mini Platform Boot Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>1134991-CHE</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>UG111X06Z-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+  </si>
+  <si>
+    <t>DD9315-002</t>
+  </si>
+  <si>
+    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI442A04C-C11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Marina Blue (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-114</t>
+  </si>
+  <si>
+    <t>['41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
+  </si>
+  <si>
+    <t>JOC11A020-A14</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Split Black White (Women's)</t>
+  </si>
+  <si>
+    <t>DR0501-101</t>
+  </si>
+  <si>
+    <t>['38', '38.5', '39', '40.5', '42', '42.5', '43', '45']</t>
+  </si>
+  <si>
+    <t>JOC11A040-Q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Dark Driftwood (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-200</t>
+  </si>
+  <si>
+    <t>NI111A0RH-B13</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Multi Color (2022) (Women's)</t>
+  </si>
+  <si>
+    <t>DN3738-400</t>
+  </si>
+  <si>
+    <t>['39', '40.5', '41', '42', '46']</t>
+  </si>
+  <si>
+    <t>JOC11A03S-T11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low New Emerald (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-132</t>
+  </si>
+  <si>
+    <t>['38', '39', '40', '40.5', '42']</t>
+  </si>
+  <si>
+    <t>JOC11A020-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature Phantom Gold Suede (Women's)</t>
+  </si>
+  <si>
+    <t>DN1431-001</t>
+  </si>
+  <si>
+    <t>ni111a10g-k11</t>
+  </si>
+  <si>
+    <t>['38', '40 2/3']</t>
+  </si>
+  <si>
+    <t>ad115o07w-q11</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Black Rain Cloud (GS)</t>
+  </si>
+  <si>
+    <t>GSB550CA</t>
+  </si>
+  <si>
+    <t>['35.5', '39.5']</t>
+  </si>
+  <si>
+    <t>NE216D05Q-A13</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Ivory Hyper Royal (GS)</t>
+  </si>
+  <si>
+    <t>FB1843-141</t>
+  </si>
+  <si>
+    <t>['36.5', '37.5', '38', '38.5', '39', '40']</t>
+  </si>
+  <si>
+    <t>NI116D0II-T11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro Miami Hurricanes</t>
+  </si>
+  <si>
+    <t>DD1391-300</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5', '38', '38.5', '39', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GN-M11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Unity (Women's)</t>
+  </si>
+  <si>
+    <t>DR8057-500</t>
+  </si>
+  <si>
+    <t>JOC11A032-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High SE World Champs</t>
+  </si>
+  <si>
+    <t>DR9512-001</t>
+  </si>
+  <si>
+    <t>['38.5', '39', '40', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112N03R-Q11</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Green</t>
+  </si>
+  <si>
+    <t>BB550WT1</t>
+  </si>
+  <si>
+    <t>NE215O07S-A11</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Pink (Women's)</t>
+  </si>
+  <si>
+    <t>BBW550WP</t>
+  </si>
+  <si>
+    <t>['35', '36', '36.5', '37', '37.5', '38', '39', '40', '40.5', '41', '41.5', '42', '42.5', '43', '44', '45']</t>
+  </si>
+  <si>
+    <t>NE211A0L8-J11</t>
+  </si>
+  <si>
+    <t>Jordan 3 Retro White Cement Reimagined</t>
+  </si>
+  <si>
+    <t>DN3707-100</t>
+  </si>
+  <si>
+    <t>['44', '44.5', '45', '45.5', '46', '47.5', '48.5']</t>
+  </si>
+  <si>
+    <t>JOC15N002-A12</t>
+  </si>
+  <si>
+    <t>Jordan 2 Retro Low UNC To Chicago (Women's)</t>
+  </si>
+  <si>
+    <t>DX4401-164</t>
+  </si>
+  <si>
+    <t>['40.5']</t>
+  </si>
+  <si>
+    <t>JOC11A08T-A11</t>
+  </si>
+  <si>
+    <t>Nike Air Dunk Jumbo Medium Olive</t>
+  </si>
+  <si>
+    <t>DV0821-200</t>
+  </si>
+  <si>
+    <t>['36.5', '37.5', '38.5', '39', '45.5', '46', '47.5', '48.5']</t>
+  </si>
+  <si>
+    <t>ni112o0td-b11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Ice Blue (2023)</t>
+  </si>
+  <si>
+    <t>DV1308-104</t>
+  </si>
+  <si>
+    <t>['36.5']</t>
+  </si>
+  <si>
+    <t>JOC12N02A-A11</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Seafoam (Women's)</t>
+  </si>
+  <si>
+    <t>AQ9129-103</t>
+  </si>
+  <si>
+    <t>['37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
+  </si>
+  <si>
+    <t>joc11a00o-a12</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low SE Light Olive (Women's)</t>
+  </si>
+  <si>
+    <t>DV0426-301</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45']</t>
+  </si>
+  <si>
+    <t>JOC11A03T-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid True Blue</t>
+  </si>
+  <si>
+    <t>DQ8426-014</t>
+  </si>
+  <si>
+    <t>['', '45.5', '47.5']</t>
+  </si>
+  <si>
+    <t>JOC12O01N-C11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High Panda Black White (2021)</t>
+  </si>
+  <si>
+    <t>DD1399-105</t>
+  </si>
+  <si>
+    <t>NI112O0GY-A15</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low UCLA</t>
+  </si>
+  <si>
+    <t>DD1391-402</t>
+  </si>
+  <si>
+    <t>['37.5', '38', '38.5', '39', '40', '40.5', '45', '45.5', '46', '47', '47.5', '48.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GN-K13</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE Lottery Pack Grey Fog</t>
+  </si>
+  <si>
+    <t>DR9654-001</t>
+  </si>
+  <si>
+    <t>['36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0QZ-C11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid White Metallic Gold Obsidian</t>
+  </si>
+  <si>
+    <t>554724-174</t>
+  </si>
+  <si>
+    <t>['', '45.5', '46', '47', '48.5']</t>
+  </si>
+  <si>
+    <t>JOC12N001-A17</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Bold Pulse Mint Pink (Women's)</t>
+  </si>
+  <si>
+    <t>H06125</t>
+  </si>
+  <si>
+    <t>['36 2/3', '39 1/3', '40 2/3']</t>
+  </si>
+  <si>
+    <t>AD111A25J-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low USC</t>
+  </si>
+  <si>
+    <t>DD1391-602</t>
+  </si>
+  <si>
+    <t>['38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GN-G12</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Ice Blue (2023) (GS)</t>
+  </si>
+  <si>
+    <t>DV1337-104</t>
+  </si>
+  <si>
+    <t>JOC43A07Z-A11</t>
+  </si>
+  <si>
+    <t>ad111a280-k11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-101</t>
+  </si>
+  <si>
+    <t>['', '36', '36.5', '38']</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '45 1/3', '49 1/3']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +859,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +1184,1366 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" t="s">
+        <v>205</v>
+      </c>
+      <c r="E48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" t="s">
+        <v>209</v>
+      </c>
+      <c r="E49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" t="s">
+        <v>221</v>
+      </c>
+      <c r="E52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D53" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>227</v>
+      </c>
+      <c r="C54" t="s">
+        <v>228</v>
+      </c>
+      <c r="D54" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" t="s">
+        <v>236</v>
+      </c>
+      <c r="E56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" t="s">
+        <v>248</v>
+      </c>
+      <c r="E59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" t="s">
+        <v>252</v>
+      </c>
+      <c r="E60" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>7132808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3">
+        <v>6954373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4">
+        <v>4815352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>9069909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/sizes.xlsx
+++ b/output/sizes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/bestSizeChecker/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29643AB7-26B1-3147-A8A4-0DD1102C798F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732EF2F3-FA06-BE42-A07B-A1CF7CD1D6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="15920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="290">
   <si>
     <t>Product_name</t>
   </si>
@@ -56,7 +56,7 @@
     <t>HQ8718</t>
   </si>
   <si>
-    <t>['', '36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '41 1/3']</t>
+    <t>['', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '41 1/3']</t>
   </si>
   <si>
     <t>adidas Gazelle Indoor Blue Fusion Gum (Women's)</t>
@@ -65,7 +65,7 @@
     <t>HQ8717</t>
   </si>
   <si>
-    <t>['', '36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '44']</t>
+    <t>['', '36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '44']</t>
   </si>
   <si>
     <t>adidas Handball Spezial Black Gum</t>
@@ -74,7 +74,7 @@
     <t>DB3021</t>
   </si>
   <si>
-    <t>['36', '36 2/3', '38', '40', '40 2/3', '47 1/3']</t>
+    <t>['36', '36 2/3', '38', '40', '40 2/3', '41 1/3', '47 1/3']</t>
   </si>
   <si>
     <t>adidas Samba Vegan Black Gum</t>
@@ -83,7 +83,7 @@
     <t>H01878</t>
   </si>
   <si>
-    <t>['36', '38', '40', '49 1/3']</t>
+    <t>['36', '49 1/3']</t>
   </si>
   <si>
     <t>adidas Handball Spezial Navy Gum</t>
@@ -92,16 +92,13 @@
     <t>BD7633</t>
   </si>
   <si>
-    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '49 1/3']</t>
-  </si>
-  <si>
     <t>adidas Samba Vegan White Gum</t>
   </si>
   <si>
     <t>H01877</t>
   </si>
   <si>
-    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '40', '48 2/3']</t>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '40', '40 2/3', '47 1/3', '48 2/3']</t>
   </si>
   <si>
     <t>adidas Gazelle Indoor Collegiate Green</t>
@@ -110,7 +107,7 @@
     <t>IG9979</t>
   </si>
   <si>
-    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '45 1/3', '47 1/3']</t>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '45 1/3', '48']</t>
   </si>
   <si>
     <t>adidas Samba Ajax Cream</t>
@@ -128,7 +125,7 @@
     <t>B75807</t>
   </si>
   <si>
-    <t>['42']</t>
+    <t>[]</t>
   </si>
   <si>
     <t>adidas Samba OG Cloud White Core Black</t>
@@ -137,7 +134,25 @@
     <t>B75806</t>
   </si>
   <si>
-    <t>['', '36', '38']</t>
+    <t>['']</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Ambinet Sky</t>
+  </si>
+  <si>
+    <t>GY9473</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '44', '44 2/3', '46', '46 2/3', '47 1/3', '48', '49 1/3']</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Forest Glade</t>
+  </si>
+  <si>
+    <t>HR1467</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '44', '44 2/3', '45 1/3', '46 2/3', '47 1/3', '48']</t>
   </si>
   <si>
     <t>Nike Dunk Low Two-Toned Grey (GS)</t>
@@ -146,9 +161,6 @@
     <t>DH9765-001</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>ni116d0e7-c11</t>
   </si>
   <si>
@@ -179,7 +191,7 @@
     <t>DD1391-100</t>
   </si>
   <si>
-    <t>['', '36', '36.5', '38', '38.5', '39', '47']</t>
+    <t>['', '36', '36.5', '37.5', '38', '38.5']</t>
   </si>
   <si>
     <t>NI112O0GN-A11</t>
@@ -191,7 +203,7 @@
     <t>DD1391-103</t>
   </si>
   <si>
-    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5']</t>
   </si>
   <si>
     <t>NI112O0GN-A15</t>
@@ -203,7 +215,7 @@
     <t>FD9749-400</t>
   </si>
   <si>
-    <t>['36.5', '37.5', '40.5', '44.5', '45.5', '46', '47.5']</t>
+    <t>['36.5', '37.5', '40.5', '44.5', '45.5', '47.5']</t>
   </si>
   <si>
     <t>NI115O04G-K11</t>
@@ -215,7 +227,7 @@
     <t>DQ7579-300</t>
   </si>
   <si>
-    <t>['36', '36.5', '37.5', '38', '38.5', '39', '40', '41', '42', '42.5', '43', '44', '44.5', '45', '46']</t>
+    <t>['36', '36.5', '37.5', '38', '38.5', '39', '40', '41', '43', '44', '44.5', '45', '46']</t>
   </si>
   <si>
     <t>ni111a161-c11</t>
@@ -239,6 +251,9 @@
     <t>DD1869-103</t>
   </si>
   <si>
+    <t>['45']</t>
+  </si>
+  <si>
     <t>ni111a0rg-a11</t>
   </si>
   <si>
@@ -248,7 +263,7 @@
     <t>DV0427-301</t>
   </si>
   <si>
-    <t>['35.5', '36.5', '38', '39', '40.5', '41', '42', '43', '44', '44.5', '45', '45.5']</t>
+    <t>['35.5', '38', '39', '40.5', '41', '42', '44', '44.5', '45', '45.5']</t>
   </si>
   <si>
     <t>joc11a03y-o11</t>
@@ -278,7 +293,7 @@
     <t>DN1431-102</t>
   </si>
   <si>
-    <t>['', '44', '46']</t>
+    <t>['', '43', '44', '46']</t>
   </si>
   <si>
     <t>ni111a10g-a12</t>
@@ -302,9 +317,6 @@
     <t>DD1873-102</t>
   </si>
   <si>
-    <t>['']</t>
-  </si>
-  <si>
     <t>ni111a0zk-a13</t>
   </si>
   <si>
@@ -335,7 +347,7 @@
     <t>DV0834-101</t>
   </si>
   <si>
-    <t>['38.5', '48.5']</t>
+    <t>['38.5']</t>
   </si>
   <si>
     <t>ni112o0tf-a12</t>
@@ -369,7 +381,7 @@
 </t>
   </si>
   <si>
-    <t>['38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+    <t>['38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
   </si>
   <si>
     <t>NI112O0GY-A18</t>
@@ -381,7 +393,7 @@
     <t>554724-079</t>
   </si>
   <si>
-    <t>['47', '48.5']</t>
+    <t>['', '47']</t>
   </si>
   <si>
     <t>JOC12N001-Q29</t>
@@ -402,342 +414,342 @@
     <t>1122553-CHE</t>
   </si>
   <si>
+    <t>['36', '38', '42']</t>
+  </si>
+  <si>
+    <t>UG111E01B-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Stealth French Blue (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-042</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>JOC11A020-K12</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro High OG Gorge Green</t>
+  </si>
+  <si>
+    <t>DZ5485-303</t>
+  </si>
+  <si>
+    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '45', '45.5', '46', '47.5', '49.5']</t>
+  </si>
+  <si>
+    <t>JOC15O003-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Pale Ivory Redwood (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-122</t>
+  </si>
+  <si>
+    <t>NI111A0RH-A21</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro High OG Starfish (Women's)</t>
+  </si>
+  <si>
+    <t>DO9369-101</t>
+  </si>
+  <si>
+    <t>JOC11A03R-A11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Terry Swoosh (Women's)</t>
+  </si>
+  <si>
+    <t>DZ4706-200</t>
+  </si>
+  <si>
+    <t>['36', '38', '42.5', '43', '44', '44.5', '45']</t>
+  </si>
+  <si>
+    <t>NI111A15O-B11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
+  </si>
+  <si>
+    <t>DV0834-100</t>
+  </si>
+  <si>
+    <t>['39', '42.5', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0TF-A11</t>
+  </si>
+  <si>
+    <t>UGG Classic Mini Platform Boot Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>1134991-CHE</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>UG111X06Z-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Retro Low Golf Wolf Grey</t>
+  </si>
+  <si>
+    <t>DD9315-002</t>
+  </si>
+  <si>
+    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI442A04C-C11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Marina Blue (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-114</t>
+  </si>
+  <si>
+    <t>['41', '42', '42.5', '43', '44', '44.5', '45', '46']</t>
+  </si>
+  <si>
+    <t>JOC11A020-A14</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Split Black White (Women's)</t>
+  </si>
+  <si>
+    <t>DR0501-101</t>
+  </si>
+  <si>
+    <t>['38', '38.5', '39', '40.5', '42', '42.5', '43', '44', '45']</t>
+  </si>
+  <si>
+    <t>JOC11A040-Q11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Dark Driftwood (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-200</t>
+  </si>
+  <si>
+    <t>['37.5', '40', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
+  </si>
+  <si>
+    <t>NI111A0RH-B13</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Multi Color (2022) (Women's)</t>
+  </si>
+  <si>
+    <t>DN3738-400</t>
+  </si>
+  <si>
+    <t>['39', '40.5', '41', '42', '46']</t>
+  </si>
+  <si>
+    <t>JOC11A03S-T11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low New Emerald (Women's)</t>
+  </si>
+  <si>
+    <t>DC0774-132</t>
+  </si>
+  <si>
+    <t>JOC11A020-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature Phantom Gold Suede (Women's)</t>
+  </si>
+  <si>
+    <t>DN1431-001</t>
+  </si>
+  <si>
+    <t>ni111a10g-k11</t>
+  </si>
+  <si>
+    <t>['40 2/3', '41 1/3']</t>
+  </si>
+  <si>
+    <t>ad115o07w-q11</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Black Rain Cloud (GS)</t>
+  </si>
+  <si>
+    <t>GSB550CA</t>
+  </si>
+  <si>
+    <t>['35.5', '39.5']</t>
+  </si>
+  <si>
+    <t>NE216D05Q-A13</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Ivory Hyper Royal (GS)</t>
+  </si>
+  <si>
+    <t>FB1843-141</t>
+  </si>
+  <si>
+    <t>['37.5', '38', '38.5', '39', '40']</t>
+  </si>
+  <si>
+    <t>NI116D0II-T11</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro Miami Hurricanes</t>
+  </si>
+  <si>
+    <t>DD1391-300</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5', '38', '38.5', '39', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112O0GN-M11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Unity (Women's)</t>
+  </si>
+  <si>
+    <t>DR8057-500</t>
+  </si>
+  <si>
+    <t>JOC11A032-M11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High SE World Champs</t>
+  </si>
+  <si>
+    <t>DR9512-001</t>
+  </si>
+  <si>
+    <t>['38.5', '39', '40', '49.5']</t>
+  </si>
+  <si>
+    <t>NI112N03R-Q11</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Green</t>
+  </si>
+  <si>
+    <t>BB550WT1</t>
+  </si>
+  <si>
+    <t>NE215O07S-A11</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Pink (Women's)</t>
+  </si>
+  <si>
+    <t>BBW550WP</t>
+  </si>
+  <si>
+    <t>['35', '36', '36.5', '37', '37.5', '38', '39', '40', '40.5', '41', '41.5', '42', '42.5', '43', '44', '45']</t>
+  </si>
+  <si>
+    <t>NE211A0L8-J11</t>
+  </si>
+  <si>
+    <t>Jordan 3 Retro White Cement Reimagined</t>
+  </si>
+  <si>
+    <t>DN3707-100</t>
+  </si>
+  <si>
+    <t>['44.5', '45', '45.5', '46', '47.5', '48.5']</t>
+  </si>
+  <si>
+    <t>JOC15N002-A12</t>
+  </si>
+  <si>
+    <t>Jordan 2 Retro Low UNC To Chicago (Women's)</t>
+  </si>
+  <si>
+    <t>DX4401-164</t>
+  </si>
+  <si>
+    <t>JOC11A08T-A11</t>
+  </si>
+  <si>
+    <t>Nike Air Dunk Jumbo Medium Olive</t>
+  </si>
+  <si>
+    <t>DV0821-200</t>
+  </si>
+  <si>
+    <t>['36.5', '37.5', '38.5', '39', '45.5', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>ni112o0td-b11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid SE Ice Blue (2023)</t>
+  </si>
+  <si>
+    <t>DV1308-104</t>
+  </si>
+  <si>
+    <t>['36.5']</t>
+  </si>
+  <si>
+    <t>JOC12N02A-A11</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Seafoam (Women's)</t>
+  </si>
+  <si>
+    <t>AQ9129-103</t>
+  </si>
+  <si>
+    <t>['38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
+  </si>
+  <si>
+    <t>joc11a00o-a12</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low SE Light Olive (Women's)</t>
+  </si>
+  <si>
+    <t>DV0426-301</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45']</t>
+  </si>
+  <si>
+    <t>JOC11A03T-O11</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid True Blue</t>
+  </si>
+  <si>
+    <t>DQ8426-014</t>
+  </si>
+  <si>
+    <t>['', '47.5']</t>
+  </si>
+  <si>
+    <t>JOC12O01N-C11</t>
+  </si>
+  <si>
+    <t>Nike Dunk High Panda Black White (2021)</t>
+  </si>
+  <si>
+    <t>DD1399-105</t>
+  </si>
+  <si>
     <t>['38']</t>
   </si>
   <si>
-    <t>UG111E01B-O11</t>
-  </si>
-  <si>
-    <t>Jordan 1 Low Stealth French Blue (Women's)</t>
-  </si>
-  <si>
-    <t>DC0774-042</t>
-  </si>
-  <si>
-    <t>['35.5', '36', '36.5', '37.5', '38.5', '39', '40', '40.5', '41', '42', '42.5', '44', '44.5']</t>
-  </si>
-  <si>
-    <t>JOC11A020-K12</t>
-  </si>
-  <si>
-    <t>Jordan 1 Retro High OG Gorge Green</t>
-  </si>
-  <si>
-    <t>DZ5485-303</t>
-  </si>
-  <si>
-    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '45', '45.5', '46', '47', '47.5']</t>
-  </si>
-  <si>
-    <t>JOC15O003-M11</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Pale Ivory Redwood (Women's)</t>
-  </si>
-  <si>
-    <t>DD1503-122</t>
-  </si>
-  <si>
-    <t>NI111A0RH-A21</t>
-  </si>
-  <si>
-    <t>Jordan 1 Retro High OG Starfish (Women's)</t>
-  </si>
-  <si>
-    <t>DO9369-101</t>
-  </si>
-  <si>
-    <t>JOC11A03R-A11</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Terry Swoosh (Women's)</t>
-  </si>
-  <si>
-    <t>DZ4706-200</t>
-  </si>
-  <si>
-    <t>['42.5', '43', '44', '44.5', '45']</t>
-  </si>
-  <si>
-    <t>NI111A15O-B11</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Light Orewood Brown Sashiko</t>
-  </si>
-  <si>
-    <t>DV0834-100</t>
-  </si>
-  <si>
-    <t>['39', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
-  </si>
-  <si>
-    <t>NI112O0TF-A11</t>
-  </si>
-  <si>
-    <t>UGG Classic Mini Platform Boot Chestnut (Women's)</t>
-  </si>
-  <si>
-    <t>1134991-CHE</t>
-  </si>
-  <si>
-    <t>['43']</t>
-  </si>
-  <si>
-    <t>UG111X06Z-O11</t>
-  </si>
-  <si>
-    <t>Jordan 1 Retro Low Golf Wolf Grey</t>
-  </si>
-  <si>
-    <t>DD9315-002</t>
-  </si>
-  <si>
-    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
-  </si>
-  <si>
-    <t>NI442A04C-C11</t>
-  </si>
-  <si>
-    <t>Jordan 1 Low Marina Blue (Women's)</t>
-  </si>
-  <si>
-    <t>DC0774-114</t>
-  </si>
-  <si>
-    <t>['41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
-  </si>
-  <si>
-    <t>JOC11A020-A14</t>
-  </si>
-  <si>
-    <t>Jordan 1 Mid Split Black White (Women's)</t>
-  </si>
-  <si>
-    <t>DR0501-101</t>
-  </si>
-  <si>
-    <t>['38', '38.5', '39', '40.5', '42', '42.5', '43', '45']</t>
-  </si>
-  <si>
-    <t>JOC11A040-Q11</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Dark Driftwood (Women's)</t>
-  </si>
-  <si>
-    <t>DD1503-200</t>
-  </si>
-  <si>
-    <t>NI111A0RH-B13</t>
-  </si>
-  <si>
-    <t>Jordan 1 Mid SE Multi Color (2022) (Women's)</t>
-  </si>
-  <si>
-    <t>DN3738-400</t>
-  </si>
-  <si>
-    <t>['39', '40.5', '41', '42', '46']</t>
-  </si>
-  <si>
-    <t>JOC11A03S-T11</t>
-  </si>
-  <si>
-    <t>Jordan 1 Low New Emerald (Women's)</t>
-  </si>
-  <si>
-    <t>DC0774-132</t>
-  </si>
-  <si>
-    <t>['38', '39', '40', '40.5', '42']</t>
-  </si>
-  <si>
-    <t>JOC11A020-M11</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Next Nature Phantom Gold Suede (Women's)</t>
-  </si>
-  <si>
-    <t>DN1431-001</t>
-  </si>
-  <si>
-    <t>ni111a10g-k11</t>
-  </si>
-  <si>
-    <t>['38', '40 2/3']</t>
-  </si>
-  <si>
-    <t>ad115o07w-q11</t>
-  </si>
-  <si>
-    <t>New Balance 550 White Black Rain Cloud (GS)</t>
-  </si>
-  <si>
-    <t>GSB550CA</t>
-  </si>
-  <si>
-    <t>['35.5', '39.5']</t>
-  </si>
-  <si>
-    <t>NE216D05Q-A13</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Ivory Hyper Royal (GS)</t>
-  </si>
-  <si>
-    <t>FB1843-141</t>
-  </si>
-  <si>
-    <t>['36.5', '37.5', '38', '38.5', '39', '40']</t>
-  </si>
-  <si>
-    <t>NI116D0II-T11</t>
-  </si>
-  <si>
-    <t>Nike Dunk Low Retro Miami Hurricanes</t>
-  </si>
-  <si>
-    <t>DD1391-300</t>
-  </si>
-  <si>
-    <t>['36', '36.5', '37.5', '38', '38.5', '39', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
-  </si>
-  <si>
-    <t>NI112O0GN-M11</t>
-  </si>
-  <si>
-    <t>Jordan 1 Low Unity (Women's)</t>
-  </si>
-  <si>
-    <t>DR8057-500</t>
-  </si>
-  <si>
-    <t>JOC11A032-M11</t>
-  </si>
-  <si>
-    <t>Nike Dunk High SE World Champs</t>
-  </si>
-  <si>
-    <t>DR9512-001</t>
-  </si>
-  <si>
-    <t>['38.5', '39', '40', '49.5']</t>
-  </si>
-  <si>
-    <t>NI112N03R-Q11</t>
-  </si>
-  <si>
-    <t>New Balance 550 White Green</t>
-  </si>
-  <si>
-    <t>BB550WT1</t>
-  </si>
-  <si>
-    <t>NE215O07S-A11</t>
-  </si>
-  <si>
-    <t>New Balance 550 White Pink (Women's)</t>
-  </si>
-  <si>
-    <t>BBW550WP</t>
-  </si>
-  <si>
-    <t>['35', '36', '36.5', '37', '37.5', '38', '39', '40', '40.5', '41', '41.5', '42', '42.5', '43', '44', '45']</t>
-  </si>
-  <si>
-    <t>NE211A0L8-J11</t>
-  </si>
-  <si>
-    <t>Jordan 3 Retro White Cement Reimagined</t>
-  </si>
-  <si>
-    <t>DN3707-100</t>
-  </si>
-  <si>
-    <t>['44', '44.5', '45', '45.5', '46', '47.5', '48.5']</t>
-  </si>
-  <si>
-    <t>JOC15N002-A12</t>
-  </si>
-  <si>
-    <t>Jordan 2 Retro Low UNC To Chicago (Women's)</t>
-  </si>
-  <si>
-    <t>DX4401-164</t>
-  </si>
-  <si>
-    <t>['40.5']</t>
-  </si>
-  <si>
-    <t>JOC11A08T-A11</t>
-  </si>
-  <si>
-    <t>Nike Air Dunk Jumbo Medium Olive</t>
-  </si>
-  <si>
-    <t>DV0821-200</t>
-  </si>
-  <si>
-    <t>['36.5', '37.5', '38.5', '39', '45.5', '46', '47.5', '48.5']</t>
-  </si>
-  <si>
-    <t>ni112o0td-b11</t>
-  </si>
-  <si>
-    <t>Jordan 1 Mid SE Ice Blue (2023)</t>
-  </si>
-  <si>
-    <t>DV1308-104</t>
-  </si>
-  <si>
-    <t>['36.5']</t>
-  </si>
-  <si>
-    <t>JOC12N02A-A11</t>
-  </si>
-  <si>
-    <t>Jordan 4 Retro Seafoam (Women's)</t>
-  </si>
-  <si>
-    <t>AQ9129-103</t>
-  </si>
-  <si>
-    <t>['37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
-  </si>
-  <si>
-    <t>joc11a00o-a12</t>
-  </si>
-  <si>
-    <t>Jordan 1 Low SE Light Olive (Women's)</t>
-  </si>
-  <si>
-    <t>DV0426-301</t>
-  </si>
-  <si>
-    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45']</t>
-  </si>
-  <si>
-    <t>JOC11A03T-O11</t>
-  </si>
-  <si>
-    <t>Jordan 1 Mid True Blue</t>
-  </si>
-  <si>
-    <t>DQ8426-014</t>
-  </si>
-  <si>
-    <t>['', '45.5', '47.5']</t>
-  </si>
-  <si>
-    <t>JOC12O01N-C11</t>
-  </si>
-  <si>
-    <t>Nike Dunk High Panda Black White (2021)</t>
-  </si>
-  <si>
-    <t>DD1399-105</t>
-  </si>
-  <si>
     <t>NI112O0GY-A15</t>
   </si>
   <si>
@@ -747,7 +759,7 @@
     <t>DD1391-402</t>
   </si>
   <si>
-    <t>['37.5', '38', '38.5', '39', '40', '40.5', '45', '45.5', '46', '47', '47.5', '48.5']</t>
+    <t>['38', '38.5', '39', '40', '40.5', '45.5', '46', '47', '47.5', '48.5']</t>
   </si>
   <si>
     <t>NI112O0GN-K13</t>
@@ -771,7 +783,7 @@
     <t>554724-174</t>
   </si>
   <si>
-    <t>['', '45.5', '46', '47', '48.5']</t>
+    <t>['', '45.5', '47', '47.5', '48.5']</t>
   </si>
   <si>
     <t>JOC12N001-A17</t>
@@ -783,7 +795,7 @@
     <t>H06125</t>
   </si>
   <si>
-    <t>['36 2/3', '39 1/3', '40 2/3']</t>
+    <t>['36', '36 2/3', '37 1/3', '41 1/3', '42 2/3']</t>
   </si>
   <si>
     <t>AD111A25J-M11</t>
@@ -810,19 +822,91 @@
     <t>JOC43A07Z-A11</t>
   </si>
   <si>
+    <t>['', '36', '36 2/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '44']</t>
+  </si>
+  <si>
     <t>ad111a280-k11</t>
   </si>
   <si>
+    <t>Jordan 1 Mid Stealth (Women's)</t>
+  </si>
+  <si>
+    <t>BQ6472-115</t>
+  </si>
+  <si>
+    <t>JOC11A000-B13</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Peach Cream (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-801</t>
+  </si>
+  <si>
+    <t>['38', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46']</t>
+  </si>
+  <si>
+    <t>ni111a0rh-h12</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro SE Craft Photon Dust (GS)</t>
+  </si>
+  <si>
+    <t>DV2262-021</t>
+  </si>
+  <si>
+    <t>JOC43A07U-C11</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Grey White</t>
+  </si>
+  <si>
+    <t>HQ8707</t>
+  </si>
+  <si>
+    <t>['38', '47 1/3', '49 1/3']</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Core Black</t>
+  </si>
+  <si>
+    <t>HQ8708</t>
+  </si>
+  <si>
+    <t>['38', '39 1/3', '46 2/3', '47 1/3']</t>
+  </si>
+  <si>
     <t>Nike Dunk Low Retro White Black Panda (2021) (Women's)</t>
   </si>
   <si>
     <t>DD1503-101</t>
   </si>
   <si>
-    <t>['', '36', '36.5', '38']</t>
-  </si>
-  <si>
-    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '45 1/3', '49 1/3']</t>
+    <t>['36', '42', '44']</t>
+  </si>
+  <si>
+    <t>['', '36', '36.5', '37.5', '38', '38.5', '39']</t>
+  </si>
+  <si>
+    <t>['36', '37 1/3', '38', '40', '45 1/3', '49 1/3']</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Stencil Swoosh</t>
+  </si>
+  <si>
+    <t>FD0661-100</t>
+  </si>
+  <si>
+    <t>['38.5', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>Jordan 1 Mid Triple White Tumbled Leather (GS)</t>
+  </si>
+  <si>
+    <t>554725-130</t>
+  </si>
+  <si>
+    <t>['38', '39']</t>
   </si>
 </sst>
 </file>
@@ -843,12 +927,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -878,11 +968,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1197,18 +1288,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="109.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1293,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,13 +1392,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,13 +1406,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1329,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1343,13 +1434,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,13 +1448,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1373,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1503,7 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1407,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1424,16 +1543,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1441,16 +1560,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1458,16 +1577,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1475,16 +1594,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,16 +1611,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1509,16 +1628,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,16 +1645,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1543,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,16 +1679,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1577,16 +1696,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1594,16 +1713,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1611,16 +1730,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1628,16 +1747,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1645,16 +1764,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1662,16 +1781,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1679,16 +1798,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1696,16 +1815,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1713,16 +1832,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1730,16 +1849,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1747,16 +1866,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1764,16 +1883,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1781,16 +1900,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1798,16 +1917,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1815,16 +1934,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1832,16 +1951,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1849,16 +1968,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1866,16 +1985,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1883,16 +2002,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1900,16 +2019,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1917,16 +2036,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1934,16 +2053,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D33" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1951,16 +2070,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1968,16 +2087,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1985,16 +2104,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2002,16 +2121,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2019,16 +2138,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2036,16 +2155,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2059,10 +2178,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2070,16 +2189,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E41" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2087,16 +2206,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2104,16 +2223,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2121,16 +2240,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2138,16 +2257,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2155,16 +2274,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -2172,16 +2291,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2189,16 +2308,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -2206,16 +2325,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2223,16 +2342,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E50" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2240,16 +2359,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2257,16 +2376,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2274,16 +2393,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -2291,16 +2410,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -2308,16 +2427,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -2325,16 +2444,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D56" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -2342,16 +2461,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E57" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -2359,16 +2478,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2376,16 +2495,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E59" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -2393,16 +2512,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D60" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E60" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -2410,16 +2529,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -2433,10 +2552,61 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C63" t="s">
+        <v>264</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" t="s">
+        <v>268</v>
+      </c>
+      <c r="E64" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2446,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2457,7 +2627,7 @@
     <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2480,16 +2650,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="E2">
-        <v>7132808</v>
+        <v>9572890</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2497,16 +2667,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>6954373</v>
+        <v>9069909</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2514,16 +2684,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="E4">
-        <v>4815352</v>
+        <v>9577719</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2531,16 +2701,101 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5">
+        <v>9126031</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6">
+        <v>7132808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7">
+        <v>6954373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8">
+        <v>4815352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9552920</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>9069909</v>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10">
+        <v>4785204</v>
       </c>
     </row>
   </sheetData>

--- a/output/sizes.xlsx
+++ b/output/sizes.xlsx
@@ -1,40 +1,1440 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patryk_dratwa/Documents/codes/bestSizeChecker/output/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594846AD-E113-9C47-B9BA-03F8C2662F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="aboutyou" sheetId="6" r:id="rId1"/>
+    <sheet name="nike" sheetId="7" r:id="rId2"/>
+    <sheet name="prm" sheetId="8" r:id="rId3"/>
+    <sheet name="zalando_cod" sheetId="4" r:id="rId4"/>
+    <sheet name="zalando_pp" sheetId="5" r:id="rId5"/>
+    <sheet name="adidas" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId7"/>
+    <sheet name="modivo" sheetId="2" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="455">
+  <si>
+    <t>Product_name</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Sizes</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Black White Gum (Kids)</t>
+  </si>
+  <si>
+    <t>HQ6638</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>https://eobuwie.com.pl/p/buty-adidas-campus-00s-j-hq6638-cblack-ftwwht-ftwwht-0000303316440</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Grey White</t>
+  </si>
+  <si>
+    <t>HQ8707</t>
+  </si>
+  <si>
+    <t>['37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3']</t>
+  </si>
+  <si>
+    <t>https://eobuwie.com.pl/p/buty-adidas-campus-00s-j-hq8707-grethr-ftwwht-owhite-0000303318505</t>
+  </si>
+  <si>
+    <t>UGG Tasman Slipper Black</t>
+  </si>
+  <si>
+    <t>5950-BLK</t>
+  </si>
+  <si>
+    <t>['', '', '', '']</t>
+  </si>
+  <si>
+    <t>https://eobuwie.com.pl/p/kapcie-ugg-m-tasman-5950-blk</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Core Black</t>
+  </si>
+  <si>
+    <t>HQ8708</t>
+  </si>
+  <si>
+    <t>['38', '39 1/3', '44', '45 1/3']</t>
+  </si>
+  <si>
+    <t>https://eobuwie.com.pl/p/buty-adidas-campus-00s-j-hq8708-cblack-ftwwht-owhite-0000303317621</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Crystal White Core Black (Women's)</t>
+  </si>
+  <si>
+    <t>GY0042</t>
+  </si>
+  <si>
+    <t>['', '36 2/3', '38 2/3', '41 1/3', '42']</t>
+  </si>
+  <si>
+    <t>https://eobuwie.com.pl/p/buty-adidas-campus-00s-w-gy0042-crywht-cblack-owhite-0000303316068</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Boot Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>1116109-CHE</t>
+  </si>
+  <si>
+    <t>https://eobuwie.com.pl/p/buty-ugg-w-classic-ultra-mini-1116109-che</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro Gorge Green Midnight Navy (Women's)</t>
+  </si>
+  <si>
+    <t>DD1503-300</t>
+  </si>
+  <si>
+    <t>['42', '42.5', '43']</t>
+  </si>
+  <si>
+    <t>https://eobuwie.com.pl/p/buty-nike-dunk-low-dd1503-300-gorge-green-midnight-navy-0000303989828</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/IF1860.html</t>
+  </si>
+  <si>
+    <t>['', '36', '36 2/3', '37 1/3', '38', '46', '47 1/3', '48 2/3', '49 1/3', '50', '50 2/3']</t>
+  </si>
+  <si>
+    <t>IF1860</t>
+  </si>
+  <si>
+    <t>adidas AE 1 New Wave</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/HQ6638.html</t>
+  </si>
+  <si>
+    <t>['39 1/3']</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/IF6561.html</t>
+  </si>
+  <si>
+    <t>['', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3']</t>
+  </si>
+  <si>
+    <t>IF6561</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Clear Pink Arctic Night (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/IF6562.html</t>
+  </si>
+  <si>
+    <t>['', '36', '42', '42 2/3', '44']</t>
+  </si>
+  <si>
+    <t>IF6562</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Aluminum Core Black (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/ID3171.html</t>
+  </si>
+  <si>
+    <t>ID3171</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Core Black True Pink (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/ID6990.html</t>
+  </si>
+  <si>
+    <t>['36', '38', '42 2/3', '43 1/3']</t>
+  </si>
+  <si>
+    <t>ID6990</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Bold Red Cloud White (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/ID3173.html</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '42 2/3', '44']</t>
+  </si>
+  <si>
+    <t>ID3173</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Putty Mauve Wonder Taupe (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/GY6433.html</t>
+  </si>
+  <si>
+    <t>['47 1/3', '48', '49 1/3']</t>
+  </si>
+  <si>
+    <t>GY6433</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Bark</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/H03471.html</t>
+  </si>
+  <si>
+    <t>H03471</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Semi Lucid Blue Cloud White</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/CQ2809.html</t>
+  </si>
+  <si>
+    <t>['48 2/3']</t>
+  </si>
+  <si>
+    <t>CQ2809</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Triple Black</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/H03477.html</t>
+  </si>
+  <si>
+    <t>['38', '38 2/3', '39 1/3', '40', '41 1/3', '45 1/3', '48', '49 1/3']</t>
+  </si>
+  <si>
+    <t>H03477</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Better Scarlet Clear Pink</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/IE7002.html</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>IE7002</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Indoor Bliss Pink Purple (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/HQ6507.html</t>
+  </si>
+  <si>
+    <t>['', '39 1/3', '40']</t>
+  </si>
+  <si>
+    <t>HQ6507</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Grey Gum (Kids)</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/EF5747.html</t>
+  </si>
+  <si>
+    <t>['40 2/3', '44 2/3', '46', '48']</t>
+  </si>
+  <si>
+    <t>EF5747</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Grey Hi-Res Red</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/GY0042.html</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/HQ8707.html</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/H03474.html</t>
+  </si>
+  <si>
+    <t>['38 2/3', '40', '47 1/3', '49 1/3']</t>
+  </si>
+  <si>
+    <t>H03474</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Better Scarlet Cloud White</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/H03472.html</t>
+  </si>
+  <si>
+    <t>['', '37 1/3', '38 2/3', '40', '41 1/3', '44', '49 1/3']</t>
+  </si>
+  <si>
+    <t>H03472</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Dark Green Cloud White</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/B75806.html</t>
+  </si>
+  <si>
+    <t>['36', '48']</t>
+  </si>
+  <si>
+    <t>B75806</t>
+  </si>
+  <si>
+    <t>adidas Samba OG Cloud White Core Black</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/H06261.html</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '38 2/3', '41 1/3', '48']</t>
+  </si>
+  <si>
+    <t>H06261</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Scarlet Cloud White</t>
+  </si>
+  <si>
+    <t>https://www.adidas.pl/p/HQ8708.html</t>
+  </si>
+  <si>
+    <t>['38', '39 1/3', '44', '45 1/3', '46', '49 1/3', '50 2/3']</t>
+  </si>
+  <si>
+    <t>UG111E01F-A11</t>
+  </si>
+  <si>
+    <t>['36', '37', '42']</t>
+  </si>
+  <si>
+    <t>1155751-WHT</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Humberto Cruz Pop Sketch (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A1EV-A11</t>
+  </si>
+  <si>
+    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '44']</t>
+  </si>
+  <si>
+    <t>FJ5474-133</t>
+  </si>
+  <si>
+    <t>Nike Zoom Vomero 5 Timeless Panda Dunk (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A1CU-G11</t>
+  </si>
+  <si>
+    <t>['']</t>
+  </si>
+  <si>
+    <t>FB7910-600</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low PRM Bacon (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A1E9-C11</t>
+  </si>
+  <si>
+    <t>['49.5']</t>
+  </si>
+  <si>
+    <t>HF0731-007</t>
+  </si>
+  <si>
+    <t>Nike Zoom Vomero 5 Platinum Tint</t>
+  </si>
+  <si>
+    <t>UG111D051-Q11</t>
+  </si>
+  <si>
+    <t>['38', '39']</t>
+  </si>
+  <si>
+    <t>1146390-BLK</t>
+  </si>
+  <si>
+    <t>UGG Tazzlita Slipper Black (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A0ZK-K11</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>DD1873-400</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature Blue Tint (Women's)</t>
+  </si>
+  <si>
+    <t>A0H15O05T-C13</t>
+  </si>
+  <si>
+    <t>['36', '37', '37.5', '38', '39', '39.5', '40', '40.5', '42', '42.5', '43.5', '44', '44.5', '45', '46', '46.5', '48']</t>
+  </si>
+  <si>
+    <t>1201A161-026</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 Clay Grey Pure Silver</t>
+  </si>
+  <si>
+    <t>UG111X04Q-O11</t>
+  </si>
+  <si>
+    <t>AD111A2HR-M11</t>
+  </si>
+  <si>
+    <t>IG5929</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Indoor Collegiate Green Lucid Pink (Women's)</t>
+  </si>
+  <si>
+    <t>UG111D03D-B13</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>5955-SNDD</t>
+  </si>
+  <si>
+    <t>UGG Tasman Slipper Sand Dark Cherry (Women's)</t>
+  </si>
+  <si>
+    <t>NI112O0TC-A13</t>
+  </si>
+  <si>
+    <t>['42', '49.5']</t>
+  </si>
+  <si>
+    <t>DV0831-103</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Picante Red</t>
+  </si>
+  <si>
+    <t>UG111X06Z-Q11</t>
+  </si>
+  <si>
+    <t>['36', '38']</t>
+  </si>
+  <si>
+    <t>1134991-BLK</t>
+  </si>
+  <si>
+    <t>UGG Classic Mini Platform Boot Black (Women's)</t>
+  </si>
+  <si>
+    <t>AD111A2HP-J11</t>
+  </si>
+  <si>
+    <t>AD111A2EL-K11</t>
+  </si>
+  <si>
+    <t>['36', '37 1/3', '42', '42 2/3', '43 1/3', '44']</t>
+  </si>
+  <si>
+    <t>IF6564</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Light Blue Wonder Clay (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A10M-A11</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>DR7883-102</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 Low Shadow Summit White University Red Black (Women's)</t>
+  </si>
+  <si>
+    <t>UG116L006-B11</t>
+  </si>
+  <si>
+    <t>1143776K-CHE</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Chestnut (Kids)</t>
+  </si>
+  <si>
+    <t>JOC43A04P-A12</t>
+  </si>
+  <si>
+    <t>378038-170</t>
+  </si>
+  <si>
+    <t>Jordan 11 Retro DMP Gratitude (2023) (GS)</t>
+  </si>
+  <si>
+    <t>NE216D06Z-C11</t>
+  </si>
+  <si>
+    <t>GC9060GY</t>
+  </si>
+  <si>
+    <t>New Balance 9060 Rain Cloud (GS)</t>
+  </si>
+  <si>
+    <t>AD111A28H-A11</t>
+  </si>
+  <si>
+    <t>['38 2/3', '41 1/3', '42']</t>
+  </si>
+  <si>
+    <t>UG111D02E-O11</t>
+  </si>
+  <si>
+    <t>['37', '41', '42']</t>
+  </si>
+  <si>
+    <t>1113474-CHE</t>
+  </si>
+  <si>
+    <t>UGG Funkette Slipper Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>NE215O0BB-C11</t>
+  </si>
+  <si>
+    <t>['', '45.5', '49']</t>
+  </si>
+  <si>
+    <t>U9060GRY</t>
+  </si>
+  <si>
+    <t>New Balance 9060 Rain Cloud Grey</t>
+  </si>
+  <si>
+    <t>UG111D03M-O11</t>
+  </si>
+  <si>
+    <t>1122550-CHE</t>
+  </si>
+  <si>
+    <t>UGG Disquette Slipper Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>A0H15O04E-A13</t>
+  </si>
+  <si>
+    <t>['', '37', '38', '40.5', '41.5', '42', '42.5', '43.5', '44', '44.5', '45', '46']</t>
+  </si>
+  <si>
+    <t>1201A019-104</t>
+  </si>
+  <si>
+    <t>ASICS Gel-Kayano 14 White Pure Silver</t>
+  </si>
+  <si>
+    <t>AD115O1LS-O12</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '48 2/3']</t>
+  </si>
+  <si>
+    <t>IG4990</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Maroon</t>
+  </si>
+  <si>
+    <t>JOC43A09O-J11</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40']</t>
+  </si>
+  <si>
+    <t>DZ5365-601</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Fierce Pink (GS)</t>
+  </si>
+  <si>
+    <t>UG111X04Q-Q11</t>
+  </si>
+  <si>
+    <t>1116109-BLK</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Boot Black (Women's)</t>
+  </si>
+  <si>
+    <t>UG111X06U-O12</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>1135092-CHO</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Boot Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>UG111D051-O11</t>
+  </si>
+  <si>
+    <t>['36', '42']</t>
+  </si>
+  <si>
+    <t>1146390-CHE</t>
+  </si>
+  <si>
+    <t>UGG Tazzlita Slipper Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>UG111D04Y-O11</t>
+  </si>
+  <si>
+    <t>1143976-HWD</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Heritage Braid Hardwood (Women's)</t>
+  </si>
+  <si>
+    <t>UG111D03D-O11</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>5955-CHE</t>
+  </si>
+  <si>
+    <t>UGG Tasman Slipper Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>JOC12N01X-Q11</t>
+  </si>
+  <si>
+    <t>['', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5']</t>
+  </si>
+  <si>
+    <t>DH6927-017</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Thunder (2023)</t>
+  </si>
+  <si>
+    <t>JOC15N002-A12</t>
+  </si>
+  <si>
+    <t>['', '', '35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>DN3707-100</t>
+  </si>
+  <si>
+    <t>Jordan 3 Retro White Cement Reimagined</t>
+  </si>
+  <si>
+    <t>NI115O04N-K11</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '42', '42.5', '43', '44', '44.5', '45.5', '46', '47.5', '48.5']</t>
+  </si>
+  <si>
+    <t>FN3416-001</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Racer Blue Photon Dust</t>
+  </si>
+  <si>
+    <t>JOC11A00O-A12</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>AQ9129-103</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Seafoam (Women's)</t>
+  </si>
+  <si>
+    <t>AD111A28H-A13</t>
+  </si>
+  <si>
+    <t>GY0037</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Crystal White Better Scarlet (Women's)</t>
+  </si>
+  <si>
+    <t>AD115O1J7-Q11</t>
+  </si>
+  <si>
+    <t>['39 1/3', '44', '45 1/3']</t>
+  </si>
+  <si>
+    <t>AD111A2EL-B11</t>
+  </si>
+  <si>
+    <t>['', '36', '36 2/3', '37 1/3', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '44']</t>
+  </si>
+  <si>
+    <t>NI112O0NK-N11</t>
+  </si>
+  <si>
+    <t>['37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>DJ6188-200</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Judge Grey</t>
+  </si>
+  <si>
+    <t>NI116D0E7-C11</t>
+  </si>
+  <si>
+    <t>DH9765-001</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Two-Toned Grey (GS)</t>
+  </si>
+  <si>
+    <t>NE216D05Q-A13</t>
+  </si>
+  <si>
+    <t>['37', '38', '38.5', '39.5', '40']</t>
+  </si>
+  <si>
+    <t>GSB550CA</t>
+  </si>
+  <si>
+    <t>New Balance 550 White Black Rain Cloud (GS)</t>
+  </si>
+  <si>
+    <t>UG111E01B-J11</t>
+  </si>
+  <si>
+    <t>1122553-MGS</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Mangosteen (Women's)</t>
+  </si>
+  <si>
+    <t>AD115O1IL-E11</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>H03473</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Pantone Cloud White</t>
+  </si>
+  <si>
+    <t>AD115O1ME-A12</t>
+  </si>
+  <si>
+    <t>['', '44 2/3', '46', '47 1/3']</t>
+  </si>
+  <si>
+    <t>IF3742</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial White Arctic Night</t>
+  </si>
+  <si>
+    <t>AD115O1IL-G11</t>
+  </si>
+  <si>
+    <t>JOC12N01X-A13</t>
+  </si>
+  <si>
+    <t>['', '36.5', '40.5', '41']</t>
+  </si>
+  <si>
+    <t>DH6927-161</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Red Cement</t>
+  </si>
+  <si>
+    <t>NI112O0QZ-C11</t>
+  </si>
+  <si>
+    <t>['36', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>DR9654-001</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE Lottery Pack Grey Fog</t>
+  </si>
+  <si>
+    <t>AD111A25S-J11</t>
+  </si>
+  <si>
+    <t>['40', '41 1/3']</t>
+  </si>
+  <si>
+    <t>HP6286</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Pink Strata (Women's)</t>
+  </si>
+  <si>
+    <t>NE215O07H-A11</t>
+  </si>
+  <si>
+    <t>['', '36', '37.5', '38', '38.5', '39.5', '40.5', '45', '47.5', '49']</t>
+  </si>
+  <si>
+    <t>BB550WA1</t>
+  </si>
+  <si>
+    <t>New Balance 550 Navy Blue</t>
+  </si>
+  <si>
+    <t>AD115O1ME-A11</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>IF3741</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial White Grey</t>
+  </si>
+  <si>
+    <t>UG116L006-B12</t>
+  </si>
+  <si>
+    <t>1143776K-SAN</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Sand (Kids)</t>
+  </si>
+  <si>
+    <t>NI111A13X-M11</t>
+  </si>
+  <si>
+    <t>['38', '40.5', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>DO9457-101</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low SE 85 Neptune Green (Women's)</t>
+  </si>
+  <si>
+    <t>NE211A0L8-K11</t>
+  </si>
+  <si>
+    <t>['35', '36.5', '37', '37.5', '38', '39', '40', '40.5', '41.5', '43']</t>
+  </si>
+  <si>
+    <t>BBW550ZA</t>
+  </si>
+  <si>
+    <t>New Balance 550 Summer Fog Dusk Blue (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A0RH-A12</t>
+  </si>
+  <si>
+    <t>['', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>DD1503-103</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Photon Dust (Women's)</t>
+  </si>
+  <si>
+    <t>NI112O0KT-T12</t>
+  </si>
+  <si>
+    <t>['38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>DB0500-100</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Scrap Sea Glass</t>
+  </si>
+  <si>
+    <t>UG111X06U-B12</t>
+  </si>
+  <si>
+    <t>['42', '43']</t>
+  </si>
+  <si>
+    <t>1135092-SAN</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Platform Boot Sand (Women's)</t>
+  </si>
+  <si>
+    <t>AD115O1ML-Q11</t>
+  </si>
+  <si>
+    <t>['36', '37 1/3', '38', '38 2/3', '39 1/3', '40', '42 2/3', '44', '44 2/3', '45 1/3', '46', '46 2/3', '47 1/3', '48']</t>
+  </si>
+  <si>
+    <t>ID2064</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Core Black Lucid Blue</t>
+  </si>
+  <si>
+    <t>UG111X04Q-O12</t>
+  </si>
+  <si>
+    <t>1116109-BCDR</t>
+  </si>
+  <si>
+    <t>UGG Classic Ultra Mini Boot Burnt Cedar (Women's)</t>
+  </si>
+  <si>
+    <t>JOC11A00O-Q11</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5', '38', '38.5', '39', '40', '40.5', '41', '42', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>AQ9129-001</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Frozen Moments (Women's)</t>
+  </si>
+  <si>
+    <t>JOC43A00Z-K11</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '37.5', '38', '38.5', '39', '40']</t>
+  </si>
+  <si>
+    <t>554723-401</t>
+  </si>
+  <si>
+    <t>Jordan 1 Low Ice Blue Black (GS)</t>
+  </si>
+  <si>
+    <t>AD111A2EL-J11</t>
+  </si>
+  <si>
+    <t>['', '36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3']</t>
+  </si>
+  <si>
+    <t>NI111A0RH-H12</t>
+  </si>
+  <si>
+    <t>DD1503-801</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Peach Cream (Women's)</t>
+  </si>
+  <si>
+    <t>NE215O0BB-Q11</t>
+  </si>
+  <si>
+    <t>['', '38.5', '41.5', '42', '45.5', '47.5', '49']</t>
+  </si>
+  <si>
+    <t>U9060BLK</t>
+  </si>
+  <si>
+    <t>New Balance 9060 Black Castlerock Grey</t>
+  </si>
+  <si>
+    <t>NI115O05L-A11</t>
+  </si>
+  <si>
+    <t>['43', '46', '47', '49.5']</t>
+  </si>
+  <si>
+    <t>FQ8080-133</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Athletic Department Deep Jungle</t>
+  </si>
+  <si>
+    <t>AD111A2DK-A11</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '43 1/3', '44']</t>
+  </si>
+  <si>
+    <t>ID7056</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Bold Magic Beige Collegiate Green (Women's)</t>
+  </si>
+  <si>
+    <t>JOC12N01D-A12</t>
+  </si>
+  <si>
+    <t>['', '', '35.5', '36', '36.5', '38', '38.5', '39', '40', '40.5', '41', '42', '43', '44', '44.5', '45', '45.5', '46', '47', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>CT8012-170</t>
+  </si>
+  <si>
+    <t>Jordan 11 Retro DMP Gratitude (2023)</t>
+  </si>
+  <si>
+    <t>AD115O1IL-K11</t>
+  </si>
+  <si>
+    <t>AD111A2AQ-J11</t>
+  </si>
+  <si>
+    <t>ID7028</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Pink Fusion (Women's)</t>
+  </si>
+  <si>
+    <t>AD111A25S-A11</t>
+  </si>
+  <si>
+    <t>['36', '37 1/3', '38', '38 2/3', '39 1/3', '40']</t>
+  </si>
+  <si>
+    <t>HP2924</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Wonder White (Women's)</t>
+  </si>
+  <si>
+    <t>AD115O0RG-G11</t>
+  </si>
+  <si>
+    <t>['36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '47 1/3', '48', '48 2/3', '49 1/3']</t>
+  </si>
+  <si>
+    <t>FV1227</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Scarlet Gum</t>
+  </si>
+  <si>
+    <t>YZY15G001-B11</t>
+  </si>
+  <si>
+    <t>['', '36', '37 1/3', '38 2/3', '40', '41 1/3', '42 2/3', '44', '45 1/3', '46 2/3', '48', '49 1/3', '50 2/3']</t>
+  </si>
+  <si>
+    <t>FZ5897</t>
+  </si>
+  <si>
+    <t>adidas Yeezy Slide Bone (2022/2023 Restock)</t>
+  </si>
+  <si>
+    <t>NI115O04G-K11</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '37.5', '48.5']</t>
+  </si>
+  <si>
+    <t>FD9749-400</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Summit White Midnight Navy</t>
+  </si>
+  <si>
+    <t>AD111A28H-A14</t>
+  </si>
+  <si>
+    <t>['38 2/3', '39 1/3', '41 1/3', '42', '43 1/3']</t>
+  </si>
+  <si>
+    <t>IF2989</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Crystal White Preloved Blue (Women's)</t>
+  </si>
+  <si>
+    <t>A0H15O07O-Q11</t>
+  </si>
+  <si>
+    <t>['38', '39', '39.5', '44', '44.5', '46', '46.5', '47', '48', '49']</t>
+  </si>
+  <si>
+    <t>1201A906-001</t>
+  </si>
+  <si>
+    <t>ASICS Gel-1130 Black Pure Silver</t>
+  </si>
+  <si>
+    <t>NI111A0RH-A22</t>
+  </si>
+  <si>
+    <t>DD1503-124</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Cacao Wow (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A0RH-A23</t>
+  </si>
+  <si>
+    <t>['35.5', '36', '39']</t>
+  </si>
+  <si>
+    <t>DD1503-125</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Sail Plum Eclipse (Women's)</t>
+  </si>
+  <si>
+    <t>AD115O1MG-M11</t>
+  </si>
+  <si>
+    <t>['46', '48']</t>
+  </si>
+  <si>
+    <t>IF8913</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Collegiate Green Gum</t>
+  </si>
+  <si>
+    <t>NI112O0GN-A15</t>
+  </si>
+  <si>
+    <t>['37.5']</t>
+  </si>
+  <si>
+    <t>DD1391-103</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Grey Fog</t>
+  </si>
+  <si>
+    <t>AD116D1LQ-J11</t>
+  </si>
+  <si>
+    <t>['', '36', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40']</t>
+  </si>
+  <si>
+    <t>ID2025</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Clear Pink (Kids)</t>
+  </si>
+  <si>
+    <t>NI111A0RH-A19</t>
+  </si>
+  <si>
+    <t>DD1503-120</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Medium Olive (Women's)</t>
+  </si>
+  <si>
+    <t>AD115O1KC-M11</t>
+  </si>
+  <si>
+    <t>ID2048</t>
+  </si>
+  <si>
+    <t>adidas Campus 00s Collegiate Green</t>
+  </si>
+  <si>
+    <t>UG111E01B-Q11</t>
+  </si>
+  <si>
+    <t>1122553-BLK</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Black (Women's)</t>
+  </si>
+  <si>
+    <t>UG111E01B-O11</t>
+  </si>
+  <si>
+    <t>1122553-CHE</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Chestnut (Women's)</t>
+  </si>
+  <si>
+    <t>AD115O07W-K11</t>
+  </si>
+  <si>
+    <t>['36', '36 2/3', '38 2/3', '39 1/3', '48', '49 1/3']</t>
+  </si>
+  <si>
+    <t>BD7633</t>
+  </si>
+  <si>
+    <t>adidas Handball Spezial Navy Gum</t>
+  </si>
+  <si>
+    <t>UG111X06U-O11</t>
+  </si>
+  <si>
+    <t>1135092-CHE</t>
+  </si>
+  <si>
+    <t>UG111E01B-B11</t>
+  </si>
+  <si>
+    <t>['36', '37', '38', '39', '40', '41', '42', '43']</t>
+  </si>
+  <si>
+    <t>1122553-MDSD</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Mustard Seed (Women's)</t>
+  </si>
+  <si>
+    <t>NI111A10G-B11</t>
+  </si>
+  <si>
+    <t>['36.5', '37.5', '38.5', '39', '40', '40.5', '41', '42.5', '43', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>DN1431-100</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Next Nature White Light Orewood Brown (Women's)</t>
+  </si>
+  <si>
+    <t>NI116D0E7-J11</t>
+  </si>
+  <si>
+    <t>['38', '38.5', '39', '40']</t>
+  </si>
+  <si>
+    <t>DH9765-600</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Triple Pink (GS)</t>
+  </si>
+  <si>
+    <t>NI112O0TE-A13</t>
+  </si>
+  <si>
+    <t>['36', '36.5', '37.5']</t>
+  </si>
+  <si>
+    <t>DV0833-400</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Polar Blue</t>
+  </si>
+  <si>
+    <t>NI111A1AT-A11</t>
+  </si>
+  <si>
+    <t>['36.5', '37.5', '39', '40', '41', '42.5']</t>
+  </si>
+  <si>
+    <t>FN7658-100</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Light Silver Corduroy (Women's)</t>
+  </si>
+  <si>
+    <t>AD116D1LQ-Q11</t>
+  </si>
+  <si>
+    <t>NI116D07B-A11</t>
+  </si>
+  <si>
+    <t>CW1590-100</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low Retro White Black Panda (GS)</t>
+  </si>
+  <si>
+    <t>AD116D1LQ-C11</t>
+  </si>
+  <si>
+    <t>['', '37 1/3', '39 1/3', '40']</t>
+  </si>
+  <si>
+    <t>AD111A25J-J11</t>
+  </si>
+  <si>
+    <t>['36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40', '40 2/3', '41 1/3', '42', '42 2/3', '43 1/3', '44']</t>
+  </si>
+  <si>
+    <t>H06122</t>
+  </si>
+  <si>
+    <t>adidas Gazelle Bold Pink Glow (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.aboutyou.pl/p/p/-10505003</t>
+  </si>
+  <si>
+    <t>https://www.aboutyou.pl/p/p/-7095385</t>
+  </si>
+  <si>
+    <t>https://www.aboutyou.pl/p/p/-10505378</t>
+  </si>
+  <si>
+    <t>https://www.aboutyou.pl/p/p/-10608034</t>
+  </si>
+  <si>
+    <t>https://www.aboutyou.pl/p/p/-14017746</t>
+  </si>
+  <si>
+    <t>https://www.aboutyou.pl/p/p/-13363317</t>
+  </si>
+  <si>
+    <t>1143976-NAT</t>
+  </si>
+  <si>
+    <t>UGG Tazz Slipper Heritage Braid Natural (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.aboutyou.pl/p/p/-11676503</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/pl/t/-/CT8012-170</t>
+  </si>
+  <si>
+    <t>['', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/pl/t/-/BQ6817-010</t>
+  </si>
+  <si>
+    <t>['41', '42', '45', '46', '47.5', '48.5', '49.5']</t>
+  </si>
+  <si>
+    <t>BQ6817-010</t>
+  </si>
+  <si>
+    <t>Nike SB Dunk Low Fog (2021/2023)</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/pl/t/-/FD0884-025</t>
+  </si>
+  <si>
+    <t>['', '', '', '', '', '36', '44', '44.5']</t>
+  </si>
+  <si>
+    <t>FD0884-025</t>
+  </si>
+  <si>
+    <t>Nike Zoom Vomero 5 Photon Dust Metallic Silver (Women's)</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/pl/t/-/408452-161</t>
+  </si>
+  <si>
+    <t>['39', '40']</t>
+  </si>
+  <si>
+    <t>408452-161</t>
+  </si>
+  <si>
+    <t>Jordan 4 Retro Red Cement (GS)</t>
+  </si>
+  <si>
+    <t>https://www.nike.com/pl/t/-/CW1590-103</t>
+  </si>
+  <si>
+    <t>CW1590-103</t>
+  </si>
+  <si>
+    <t>Nike Dunk Low UNC (2021/2024) (GS)</t>
+  </si>
+  <si>
+    <t>['', '36 2/3', '37 1/3', '38', '38 2/3', '39 1/3', '40']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +1442,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +1767,2769 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F93D646-FDCF-2143-ACB1-4115FF94C6B2}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE517283-CDEB-4643-8ABF-313E1E345308}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CB1955-88FD-1A45-9A1E-82D37347D06F}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>17492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6">
+        <v>26729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>34321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>27144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7EDF1E2-8A5D-A845-B491-D7A04DF91401}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45221BD7-B7FB-E141-82F8-6FCF27DECC43}">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>399</v>
+      </c>
+      <c r="E10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C12" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D19" t="s">
+        <v>373</v>
+      </c>
+      <c r="E19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>369</v>
+      </c>
+      <c r="E20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>348</v>
+      </c>
+      <c r="C26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" t="s">
+        <v>346</v>
+      </c>
+      <c r="E26" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" t="s">
+        <v>338</v>
+      </c>
+      <c r="E28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" t="s">
+        <v>327</v>
+      </c>
+      <c r="D32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>320</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" t="s">
+        <v>315</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" t="s">
+        <v>309</v>
+      </c>
+      <c r="E38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" t="s">
+        <v>302</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s">
+        <v>294</v>
+      </c>
+      <c r="E42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D47" t="s">
+        <v>282</v>
+      </c>
+      <c r="E47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D49" t="s">
+        <v>278</v>
+      </c>
+      <c r="E49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C51" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" t="s">
+        <v>271</v>
+      </c>
+      <c r="E51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D52" t="s">
+        <v>267</v>
+      </c>
+      <c r="E52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" t="s">
+        <v>260</v>
+      </c>
+      <c r="D54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C55" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" t="s">
+        <v>255</v>
+      </c>
+      <c r="E55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" t="s">
+        <v>243</v>
+      </c>
+      <c r="D59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>237</v>
+      </c>
+      <c r="C61" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D64" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" t="s">
+        <v>228</v>
+      </c>
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" t="s">
+        <v>225</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
+      </c>
+      <c r="D69" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>217</v>
+      </c>
+      <c r="E70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D8B566B-58FE-444A-8AEE-EFC18B56FC35}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>